--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1229493.184586566</v>
+        <v>1254094.645371426</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>153.7680905114898</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>158.841334124391</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>67.51666878863779</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>173.9836246750042</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.10634673358873</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>155.7266806515576</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.7266806515576</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,16 +987,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08873955668993</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>61.0710549037252</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,50 +1142,50 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>181.0201173812374</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.841334124391</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>95.12825899210648</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1379,55 +1379,55 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>205.5178444382804</v>
@@ -1512,7 +1512,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1686,22 +1686,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>29.90684812882265</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2102,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.56713651463427</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>148.8187926179027</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>7.462486501116718</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F26" t="n">
         <v>241.0142888776591</v>
@@ -2570,13 +2570,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>9.245357950761532</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2795,61 +2795,61 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2877,16 +2877,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>111.8222415737864</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2922,10 +2922,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8731252940988786</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,31 +3071,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,13 +3108,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>130.1562265640802</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.20665386009138</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3284,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>69.88468457242926</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>65.62171707681784</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>123.9717416665522</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>169.5521944243417</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>136.2124090935528</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3986,64 +3986,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>64.70912214928242</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>43.67660021802678</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E2" t="n">
-        <v>38.84423892561444</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>31.89873817641097</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,7 +4337,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4370,10 +4370,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="Y2" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>38.84423892561444</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438.7365604669756</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="C3" t="n">
-        <v>438.7365604669756</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="D3" t="n">
-        <v>289.8021508057243</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>198.7633511423272</v>
       </c>
       <c r="G3" t="n">
         <v>130.5646958002688</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W3" t="n">
-        <v>646.3303427278648</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X3" t="n">
-        <v>438.7365604669756</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y3" t="n">
-        <v>438.7365604669756</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C5" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D5" t="n">
-        <v>239.4925204373003</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E5" t="n">
-        <v>239.4925204373003</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F5" t="n">
         <v>31.89873817641097</v>
@@ -4574,7 +4574,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4601,7 +4601,7 @@
         <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
         <v>604.3859801240053</v>
@@ -4610,7 +4610,7 @@
         <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>447.0863026981896</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>586.9660989576034</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="C6" t="n">
-        <v>412.5130696764764</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="D6" t="n">
-        <v>412.5130696764764</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E6" t="n">
-        <v>253.275614671021</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F6" t="n">
-        <v>106.7410566979059</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G6" t="n">
-        <v>106.7410566979059</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="T6" t="n">
-        <v>648.6540332037905</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="U6" t="n">
-        <v>586.9660989576034</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="V6" t="n">
-        <v>586.9660989576034</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="W6" t="n">
-        <v>586.9660989576034</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="X6" t="n">
-        <v>586.9660989576034</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="Y6" t="n">
-        <v>586.9660989576034</v>
+        <v>724.0019438574752</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F8" t="n">
-        <v>431.628992076841</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4829,25 +4829,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>38.84423892561444</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>398.5500940954249</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>398.5500940954249</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>252.0155361223099</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>113.2847107049254</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
         <v>17.19556020784815</v>
@@ -4887,13 +4887,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4911,22 +4911,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W9" t="n">
-        <v>547.4845037566762</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X9" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y9" t="n">
-        <v>547.4845037566762</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
         <v>16.44142755506243</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,49 +5042,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5148,16 +5148,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>639.2227743377304</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>431.628992076841</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X12" t="n">
         <v>16.44142755506243</v>
@@ -5288,10 +5288,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="H15" t="n">
         <v>107.4951893506917</v>
@@ -5361,13 +5361,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5692,31 +5692,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>878.6358054958541</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5935,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5972,13 +5972,13 @@
         <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6023,10 +6023,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="W23" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="W23" t="n">
-        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
         <v>233.7108255783361</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>350.2064472052342</v>
       </c>
       <c r="C24" t="n">
-        <v>362.4348659156472</v>
+        <v>175.7534179241071</v>
       </c>
       <c r="D24" t="n">
-        <v>362.4348659156472</v>
+        <v>26.81900826285587</v>
       </c>
       <c r="E24" t="n">
-        <v>362.4348659156472</v>
+        <v>26.81900826285587</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>26.81900826285587</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>26.81900826285587</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6172,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
         <v>829.5248650203655</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6263,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>853.5488806587123</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>853.5488806587123</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>853.5488806587123</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="V27" t="n">
-        <v>853.5488806587123</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="W27" t="n">
-        <v>610.1001040146123</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X27" t="n">
-        <v>402.2486038090794</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>362.0174894886673</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>362.0174894886673</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>223.2866640712828</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6570,22 +6570,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>486.4017421314428</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>486.4017421314428</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>486.4017421314428</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>278.55024192591</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>278.55024192591</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6643,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>911.8125548258105</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>700.6811714053606</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.0338015341832</v>
+        <v>150.7520790335261</v>
       </c>
       <c r="C33" t="n">
-        <v>109.5807722530562</v>
+        <v>150.7520790335261</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>150.7520790335261</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>895.1615455509479</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>895.1615455509479</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>895.1615455509479</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>895.1615455509479</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>660.0094373192052</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>660.0094373192052</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X33" t="n">
-        <v>660.0094373192052</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y33" t="n">
-        <v>452.2491385542513</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.203140025706</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>314.750110744579</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>489.203140025706</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>489.203140025706</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>489.203140025706</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7120,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7766548071333</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>82.32787816303323</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>281.5846883638847</v>
+        <v>318.9581538727056</v>
       </c>
       <c r="C39" t="n">
-        <v>281.5846883638847</v>
+        <v>144.5051245915786</v>
       </c>
       <c r="D39" t="n">
-        <v>132.6502787026334</v>
+        <v>144.5051245915786</v>
       </c>
       <c r="E39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>691.6227832106515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>489.4361885694175</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>489.4361885694175</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>489.4361885694175</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>489.4361885694175</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X39" t="n">
-        <v>281.5846883638847</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y39" t="n">
-        <v>281.5846883638847</v>
+        <v>318.9581538727056</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7363,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
         <v>829.5248650203655</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7412,16 +7412,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7430,31 +7430,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7527,10 +7527,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X42" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X42" t="n">
-        <v>406.8838132313431</v>
       </c>
       <c r="Y42" t="n">
         <v>406.8838132313431</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,13 +7649,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7676,19 +7676,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
         <v>224.0352098159517</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>480.4386961837225</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>480.4386961837225</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D45" t="n">
-        <v>480.4386961837225</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E45" t="n">
-        <v>415.0759465379826</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F45" t="n">
-        <v>268.5413885648676</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>60.55920555306929</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7734,16 +7734,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>648.6540332037905</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7825,16 +7825,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -7985,10 +7985,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8070,13 +8070,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8304,16 +8304,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,13 +8699,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10440,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>303.774711870172</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,10 +11382,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23388,10 +23388,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>27.28274271114486</v>
@@ -23400,7 +23400,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>19.39975207878135</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23574,22 +23574,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>82.32859610767382</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -23990,7 +23990,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>15.59069763800886</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24263,13 +24263,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>23.88970637041308</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>104.7729577353797</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,7 +24348,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F26" t="n">
         <v>165.8617568640524</v>
@@ -24458,13 +24458,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>162.4378131530763</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>101.5944580069804</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24765,16 +24765,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0.4132026627100203</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24810,10 +24810,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.0682567868759</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,31 +24959,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>27.4888538913207</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,7 +25014,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.95118029255175</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,7 +25172,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>67.45883259078137</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>186.0732660841018</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25360,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,25 +25391,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>344.4597780394191</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>33.67333878884872</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>2.130976679496143</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>8.856803299831057</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25874,13 +25874,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.2178212748161</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,16 +25950,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>92.93595830611852</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>68.55884401846967</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26065,10 +26065,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398964.2489104134</v>
+        <v>398964.2489104135</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398964.2489104134</v>
+        <v>398964.2489104135</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398964.2489104134</v>
+        <v>398964.2489104135</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398964.2489104135</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378771.3829049747</v>
+        <v>378771.3829049746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378771.3829049747</v>
+        <v>378771.3829049749</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26326,10 +26326,10 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="H2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="I2" t="n">
         <v>207700.8406641654</v>
@@ -26338,13 +26338,13 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
+        <v>207700.8406641655</v>
+      </c>
+      <c r="L2" t="n">
         <v>207700.8406641654</v>
       </c>
-      <c r="L2" t="n">
-        <v>207700.8406641655</v>
-      </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="C4" t="n">
-        <v>315381.2204626939</v>
+        <v>312508.3744827597</v>
       </c>
       <c r="D4" t="n">
-        <v>315381.220462694</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82773.04417894557</v>
+        <v>85645.89015888021</v>
       </c>
       <c r="C6" t="n">
-        <v>151646.8007606357</v>
+        <v>154519.6467405701</v>
       </c>
       <c r="D6" t="n">
-        <v>151646.8007606357</v>
+        <v>154519.6467405699</v>
       </c>
       <c r="E6" t="n">
-        <v>157858.2210365711</v>
+        <v>160731.0670165055</v>
       </c>
       <c r="F6" t="n">
-        <v>157858.2210365711</v>
+        <v>160731.0670165055</v>
       </c>
       <c r="G6" t="n">
-        <v>155007.8875952267</v>
+        <v>158035.8607136175</v>
       </c>
       <c r="H6" t="n">
-        <v>164736.9305693938</v>
+        <v>167764.9036877845</v>
       </c>
       <c r="I6" t="n">
-        <v>164736.9305693938</v>
+        <v>167764.9036877845</v>
       </c>
       <c r="J6" t="n">
-        <v>110964.4196791844</v>
+        <v>113992.392797575</v>
       </c>
       <c r="K6" t="n">
-        <v>164736.9305693939</v>
+        <v>167764.9036877845</v>
       </c>
       <c r="L6" t="n">
-        <v>164736.9305693939</v>
+        <v>167764.9036877845</v>
       </c>
       <c r="M6" t="n">
-        <v>164736.9305693939</v>
+        <v>167764.9036877845</v>
       </c>
       <c r="N6" t="n">
-        <v>164736.9305693938</v>
+        <v>167764.9036877845</v>
       </c>
       <c r="O6" t="n">
-        <v>157858.2210365711</v>
+        <v>160731.0670165055</v>
       </c>
       <c r="P6" t="n">
-        <v>157858.2210365711</v>
+        <v>160731.0670165055</v>
       </c>
     </row>
   </sheetData>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.3966045316626</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27461,16 +27461,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>69.82684837457285</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>77.71135848591538</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27555,10 +27555,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>251.1493650901539</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27673,16 +27673,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.511258004496</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,16 +27707,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>3.069094595953203</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>164.8703271772496</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>117.9236889088725</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27813,10 +27813,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>225.855928360474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27901,10 +27901,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>227.3966045316626</v>
       </c>
     </row>
     <row r="9">
@@ -27935,19 +27935,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>17.10718524438998</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>86.46950422323975</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N2" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N5" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35024,16 +35024,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35419,13 +35419,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,22 +36203,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,10 +36920,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,7 +37151,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37160,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>161.1784674257276</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,10 +38102,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1254094.645371426</v>
+        <v>1254878.791309455</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F2" t="n">
-        <v>153.7680905114898</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67.51666878863779</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,10 +794,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.10634673358873</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F5" t="n">
-        <v>155.7266806515576</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>145.1225622949434</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08873955668993</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>205.5178444382804</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.841334124391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1263,22 +1265,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>113.950365236779</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>119.3034809802377</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1412,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="12">
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>24.5537323853639</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>186.3732331246961</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1686,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>29.90684812882265</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1886,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>21.85442600983729</v>
-      </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>121.186763950509</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2396,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>7.462486501116718</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,64 +2563,64 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>124.3469240739945</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.8222415737864</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>104.2801141926743</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>130.1562265640802</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>69.88468457242926</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>131.7486919442745</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>123.9717416665522</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3782,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>12.45968987784987</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,14 +3988,14 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>5.211223902333198</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>43.67660021802678</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4361,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y2" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="V2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>198.7633511423272</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4413,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4440,19 +4442,19 @@
         <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>345.2979091154422</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C5" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D5" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E5" t="n">
-        <v>189.1984156022267</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F5" t="n">
-        <v>31.89873817641097</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4574,7 +4576,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4589,28 +4591,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.792197863116</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>575.067534196224</v>
+        <v>574.3134015434382</v>
       </c>
       <c r="E6" t="n">
-        <v>415.8300791907684</v>
+        <v>415.0759465379826</v>
       </c>
       <c r="F6" t="n">
-        <v>269.2955212176533</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4656,10 +4658,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>639.4279001397708</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>724.0019438574752</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.84423892561444</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
-        <v>38.84423892561444</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D8" t="n">
-        <v>38.84423892561444</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E8" t="n">
-        <v>38.84423892561444</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4829,25 +4831,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="T8" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="T8" t="n">
-        <v>406.8838132313431</v>
-      </c>
       <c r="U8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.84423892561444</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4889,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4911,19 +4913,19 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>137.7041268545529</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7041268545529</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y9" t="n">
         <v>17.19556020784815</v>
@@ -4942,10 +4944,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
         <v>16.44142755506243</v>
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>412.2910008509983</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W12" t="n">
-        <v>204.697218590109</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>132.2969392348976</v>
       </c>
     </row>
     <row r="13">
@@ -5288,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>137.7041268545529</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>137.7041268545529</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>137.7041268545529</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>137.7041268545529</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>137.7041268545529</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
         <v>107.4951893506917</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
         <v>487.4018176583718</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5692,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>509.4769954460863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
         <v>31.35113235729608</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502.6601697108322</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C21" t="n">
-        <v>328.2071404297052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
         <v>20.03527576299844</v>
@@ -5832,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>878.6358054958541</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>878.6358054958541</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>878.6358054958541</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>878.6358054958541</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>878.6358054958541</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>670.8755067309003</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,16 +6022,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V23" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="X23" t="n">
-        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
         <v>233.7108255783361</v>
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>350.2064472052342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>175.7534179241071</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>26.81900826285587</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>26.81900826285587</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>26.81900826285587</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>26.81900826285587</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>361.6807332628614</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>361.6807332628614</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>361.6807332628614</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>361.6807332628614</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>361.6807332628614</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.6807332628614</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>362.0174894886673</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>362.0174894886673</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.2866640712828</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.7520790335261</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C33" t="n">
-        <v>150.7520790335261</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>150.7520790335261</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.9674160535941</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D36" t="n">
-        <v>203.9950018326204</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>203.9950018326204</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>203.9950018326204</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>657.5603241489066</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>657.5603241489066</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>657.5603241489066</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>657.5603241489066</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>657.5603241489066</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>449.8000253839527</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>318.9581538727056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>144.5051245915786</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>144.5051245915786</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>318.9581538727056</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7412,46 +7414,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
         <v>16.44142755506243</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,46 +7496,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7679,16 +7681,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
         <v>224.0352098159517</v>
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C45" t="n">
-        <v>199.2900309704538</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D45" t="n">
-        <v>199.2900309704538</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="E45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>60.55920555306929</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,10 +7733,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
         <v>366.5706756325438</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V45" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8304,13 +8306,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9246,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="12">
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>87.68171185113256</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>19.39975207878135</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23574,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>82.32859610767382</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23932,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>164.936795482178</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>393.4483115052977</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>51.52173503780676</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.59069763800886</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24284,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.7729577353797</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>101.5944580069804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4132026627100203</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>147.4148689682453</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.4888538913207</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25245,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>67.45883259078137</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>68.41603675054711</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>33.67333878884872</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,19 +25523,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25670,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>145.1853905775511</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>152.4338565530678</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>68.55884401846967</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378771.3829049746</v>
+        <v>378771.3829049747</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398964.2489104135</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398964.2489104134</v>
+        <v>398964.2489104135</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378771.3829049746</v>
+        <v>378771.3829049747</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378771.3829049749</v>
+        <v>378771.3829049747</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>197197.0522936645</v>
@@ -26326,7 +26328,7 @@
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641655</v>
@@ -26344,7 +26346,7 @@
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
@@ -26418,7 +26420,7 @@
         <v>312508.3744827596</v>
       </c>
       <c r="C4" t="n">
-        <v>312508.3744827597</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="D4" t="n">
         <v>312508.3744827596</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85645.89015888021</v>
+        <v>85645.89015888018</v>
       </c>
       <c r="C6" t="n">
-        <v>154519.6467405701</v>
+        <v>154519.64674057</v>
       </c>
       <c r="D6" t="n">
-        <v>154519.6467405699</v>
+        <v>154519.64674057</v>
       </c>
       <c r="E6" t="n">
         <v>160731.0670165055</v>
@@ -26534,7 +26536,7 @@
         <v>160731.0670165055</v>
       </c>
       <c r="G6" t="n">
-        <v>158035.8607136175</v>
+        <v>158035.8607136174</v>
       </c>
       <c r="H6" t="n">
         <v>167764.9036877845</v>
@@ -26549,7 +26551,7 @@
         <v>167764.9036877845</v>
       </c>
       <c r="L6" t="n">
-        <v>167764.9036877845</v>
+        <v>167764.9036877844</v>
       </c>
       <c r="M6" t="n">
         <v>167764.9036877845</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910244</v>
       </c>
       <c r="F2" t="n">
-        <v>253.1079552302216</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,13 +27469,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>69.82684837457285</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27512,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>113.4971061691875</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>251.1493650901539</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.322503269695346</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.069094595953203</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>117.9236889088725</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27901,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>17.57800512585095</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.3966045316626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27983,22 +27985,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>137.7446179241406</v>
       </c>
       <c r="X9" t="n">
-        <v>86.46950422323975</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35024,13 +35026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37388,7 +37390,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1254878.791309455</v>
+        <v>1185991.233932762</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6137365.57381897</v>
+        <v>6193284.50131766</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>119.3034809802377</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>9.211010870930394</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>145.1225622949434</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>24.92994939642978</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>73.63038023878079</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>77.16536864435427</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>114.2906915452287</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>24.5537323853639</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>62.52515684565924</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,61 +2095,61 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.186763950509</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>50.93559146967999</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2280,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2399,28 +2399,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>190.3453970742848</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>104.2801141926743</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>40.47627913313511</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>131.7486919442745</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.7003363133712</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,25 +3784,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>12.45968987784987</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>25.05536780993414</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,58 +3912,58 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4055,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>10.9492201923453</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>5.211223902333198</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>51.89093722176946</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6989813239244</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>651.2927635848137</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>651.2927635848137</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>651.2927635848137</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>651.2927635848137</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>651.2927635848137</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>443.6989813239244</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>443.6989813239244</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="D6" t="n">
-        <v>574.3134015434382</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="E6" t="n">
-        <v>415.0759465379826</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>191.7516008032143</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>431.628992076841</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>431.628992076841</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>582.7562146098089</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>547.4845037566762</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>547.4845037566762</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>432.3831247296267</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>224.7893424687375</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>582.7562146098089</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132.2969392348976</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C12" t="n">
-        <v>132.2969392348976</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D12" t="n">
-        <v>132.2969392348976</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E12" t="n">
-        <v>132.2969392348976</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="F12" t="n">
-        <v>132.2969392348976</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G12" t="n">
-        <v>132.2969392348976</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>232.5025681519757</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>639.4279001397708</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>547.4845037566762</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>339.8907214957869</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y12" t="n">
-        <v>132.2969392348976</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>900.9004314241117</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2441409110171</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.4461484402802</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
         <v>20.03527576299844</v>
@@ -5837,10 +5837,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>912.6070631170201</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>912.6070631170201</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>710.420468475786</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>710.420468475786</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>710.420468475786</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>710.420468475786</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>710.420468475786</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6025,16 +6025,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="Y23" t="n">
         <v>477.1596022224361</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.8099852548154</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.8099852548154</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="30">
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>700.0686226272894</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>395.3479803358136</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6645,22 +6645,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6682,16 +6682,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6885,10 +6885,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>72.23626279480629</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E35" t="n">
-        <v>72.23626279480629</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>72.23626279480629</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>72.23626279480629</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>657.5603241489066</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>657.5603241489066</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>657.5603241489066</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>657.5603241489066</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>657.5603241489066</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>449.8000253839527</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.23626279480629</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W38" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X38" t="n">
-        <v>559.1338160830064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.6850394389064</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>491.7024528141798</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7265,10 +7265,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>699.5539530197126</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>491.7024528141798</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>491.7024528141798</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>453.0030327087026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>518.7152536647734</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C42" t="n">
-        <v>518.7152536647734</v>
+        <v>203.827050448935</v>
       </c>
       <c r="D42" t="n">
-        <v>518.7152536647734</v>
+        <v>203.827050448935</v>
       </c>
       <c r="E42" t="n">
-        <v>506.1297083336119</v>
+        <v>44.58959544347954</v>
       </c>
       <c r="F42" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>518.7152536647734</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>518.7152536647734</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>518.7152536647734</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>518.7152536647734</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X42" t="n">
-        <v>518.7152536647734</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.7152536647734</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>345.09272902505</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C45" t="n">
-        <v>170.639699743923</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D45" t="n">
-        <v>21.70529008267172</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y45" t="n">
-        <v>513.308066045118</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>230.174158102173</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,10 +9254,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9485,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11144,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>265.6729592778915</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>160.0786444523452</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>30.77852084815521</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>87.68171185113256</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>109.1580142581786</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>55.92513116551942</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>51.52173503780676</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>49.22224268296314</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24110,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24147,7 +24147,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>111.1469913286911</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24168,16 +24168,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24265,13 +24265,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24287,28 +24287,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>90.01494526515906</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,16 +24572,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>10.49235770196768</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>147.4148689682453</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25125,13 +25125,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>169.9996104372708</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>68.41603675054711</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>324.7966126378724</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>130.141182554586</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>89.99464684754841</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,25 +25672,25 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>201.9355493385884</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>145.1853905775511</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>120.0138445834497</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>161.7592787959704</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>152.4338565530678</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>947488.6798736975</v>
+        <v>941981.4812335123</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>947488.6798736975</v>
+        <v>948774.7268122345</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>947488.6798736975</v>
+        <v>948774.7268122345</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>378771.3829049747</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378771.3829049747</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398964.2489104135</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398964.2489104135</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>398964.2489104135</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>378771.3829049747</v>
+        <v>398964.2489104135</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>378771.3829049747</v>
+        <v>398964.2489104134</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641656</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641655</v>
@@ -26340,22 +26340,22 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="L2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312508.3744827596</v>
+        <v>347968.0377624265</v>
       </c>
       <c r="C4" t="n">
-        <v>312508.3744827596</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>312508.3744827596</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26456,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531152</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85645.89015888018</v>
+        <v>110368.6273795441</v>
       </c>
       <c r="C6" t="n">
-        <v>154519.64674057</v>
+        <v>100065.7193676686</v>
       </c>
       <c r="D6" t="n">
-        <v>154519.64674057</v>
+        <v>160642.0415543367</v>
       </c>
       <c r="E6" t="n">
-        <v>160731.0670165055</v>
+        <v>155546.8930677442</v>
       </c>
       <c r="F6" t="n">
-        <v>160731.0670165055</v>
+        <v>155546.893067744</v>
       </c>
       <c r="G6" t="n">
-        <v>158035.8607136174</v>
+        <v>155546.8930677441</v>
       </c>
       <c r="H6" t="n">
-        <v>167764.9036877845</v>
+        <v>155546.8930677441</v>
       </c>
       <c r="I6" t="n">
-        <v>167764.9036877845</v>
+        <v>155546.893067744</v>
       </c>
       <c r="J6" t="n">
-        <v>113992.392797575</v>
+        <v>141545.6609274647</v>
       </c>
       <c r="K6" t="n">
-        <v>167764.9036877845</v>
+        <v>107289.9401341114</v>
       </c>
       <c r="L6" t="n">
-        <v>167764.9036877844</v>
+        <v>155546.893067744</v>
       </c>
       <c r="M6" t="n">
-        <v>167764.9036877845</v>
+        <v>155546.893067744</v>
       </c>
       <c r="N6" t="n">
-        <v>167764.9036877845</v>
+        <v>155546.893067744</v>
       </c>
       <c r="O6" t="n">
-        <v>160731.0670165055</v>
+        <v>155546.8930677441</v>
       </c>
       <c r="P6" t="n">
-        <v>160731.0670165055</v>
+        <v>155546.893067744</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910244</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>324.737194744175</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>113.4971061691875</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27590,10 +27590,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>201.783679862813</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>199.809058715315</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,25 +27700,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>2.322503269695346</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>132.7151310589712</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27751,10 +27751,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>120.9660550247851</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>333.2456655029306</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27934,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7446179241406</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>128.5173271329501</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.61977832229879</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,10 +35974,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36132,10 +36132,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>127.1185794980173</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>21.52426467247106</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
